--- a/unit table.xlsx
+++ b/unit table.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="単元表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="日程" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>中学数学単元一覧</t>
     <rPh sb="0" eb="2">
@@ -53,12 +54,39 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>HPづくり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AtsuEigo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学数理
+tex</t>
+    <rPh sb="0" eb="2">
+      <t>チュウガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学以上
+数学</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +123,53 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF0000D2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF0000D2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0000D2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0000D2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +195,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -210,16 +295,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -228,25 +447,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -257,16 +503,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FF0000D2"/>
       <color rgb="FF006C00"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000D2"/>
       <color rgb="FFC80000"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFF29000"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00D200"/>
-      <color rgb="FF009900"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2351,6 +2597,494 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514476" y="200025"/>
+          <a:ext cx="666750" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="190500"/>
+          <a:ext cx="714376" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076826" y="190500"/>
+          <a:ext cx="723899" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066802</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810002" y="190500"/>
+          <a:ext cx="790574" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="180975"/>
+          <a:ext cx="742951" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>17:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658101" y="180975"/>
+          <a:ext cx="790574" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>19:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9115425" y="180975"/>
+          <a:ext cx="762001" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>22:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2645,7 +3379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2658,723 +3392,723 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="10"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="10"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="10"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="10"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="10"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="10"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="10"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="10"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="10"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="10"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="10"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="10"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="10"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="10"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="10"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="10"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="10"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="10"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="10"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="10"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="10"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="10"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="10"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="10"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="10"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="10"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="10"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="10"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="10"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="10"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="10"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="10"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="10"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="10"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="10"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="10"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="10"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="10"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="10"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="10"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="10"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="10"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="10"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="10"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="10"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="10"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="10"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="10"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="10"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="10"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="10"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="10"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="10"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="10"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="10"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="10"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="10"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="10"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="10"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="10"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="10"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="10"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="10"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="10"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="10"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="10"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="10"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="10"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="10"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="10"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="10"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="10"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="10"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="10"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="10"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="10"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="10"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="10"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="10"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="10"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="10"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="10"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="10"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="10"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="10"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="10"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="10"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="10"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
+      <c r="A72" s="4"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="10"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="10"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="10"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="10"/>
+      <c r="A73" s="4"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="10"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="10"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="10"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="10"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="10"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="10"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="10"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="10"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="10"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="10"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="10"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="10"/>
+      <c r="A76" s="4"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="10"/>
+      <c r="C76" s="4"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="10"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="10"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="10"/>
+      <c r="A77" s="4"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="10"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="10"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="10"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10"/>
+      <c r="A78" s="4"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="10"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="10"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="10"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10"/>
+      <c r="A79" s="4"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="10"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="10"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="10"/>
+      <c r="G79" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3392,15 +4126,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="H3:H7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>